--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -82,6 +82,36 @@
     <t>msg.BT_UpdateMoney</t>
   </si>
   <si>
+    <t>msg.C2GW_JoinGame</t>
+  </si>
+  <si>
+    <t>msg.GW2C_JoinOk</t>
+  </si>
+  <si>
+    <t>msg.RoomMemberInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateRoomInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_StartGame</t>
+  </si>
+  <si>
+    <t>msg.GW2C_QuestionInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_Answer</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AnswerOk</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AnswerInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_GameOver</t>
+  </si>
+  <si>
     <t>msg.C2GW_ReqLogin</t>
   </si>
   <si>
@@ -118,13 +148,7 @@
     <t>msg.C2L_ReqLogin</t>
   </si>
   <si>
-    <t>msg.C2L_ReqLoginWechat</t>
-  </si>
-  <si>
     <t>msg.L2C_RetLogin</t>
-  </si>
-  <si>
-    <t>msg.C2L_ReqRegistAuthCode</t>
   </si>
   <si>
     <t>msg.C2L_ReqRegistAccount</t>
@@ -788,7 +812,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1684,6 +1708,70 @@
       </c>
       <c r="B111" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1722,59 +1810,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -80,36 +80,6 @@
   </si>
   <si>
     <t>msg.BT_UpdateMoney</t>
-  </si>
-  <si>
-    <t>msg.C2GW_JoinGame</t>
-  </si>
-  <si>
-    <t>msg.GW2C_JoinOk</t>
-  </si>
-  <si>
-    <t>msg.RoomMemberInfo</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateRoomInfo</t>
-  </si>
-  <si>
-    <t>msg.GW2C_StartGame</t>
-  </si>
-  <si>
-    <t>msg.GW2C_QuestionInfo</t>
-  </si>
-  <si>
-    <t>msg.C2GW_Answer</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AnswerOk</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AnswerInfo</t>
-  </si>
-  <si>
-    <t>msg.GW2C_GameOver</t>
   </si>
   <si>
     <t>msg.C2GW_ReqLogin</t>
@@ -812,7 +782,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1692,86 +1662,6 @@
       </c>
       <c r="B109" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>106</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>107</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>108</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>109</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>110</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>111</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>112</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>113</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>114</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>115</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1810,59 +1700,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -127,6 +127,15 @@
     <t>msg.L2C_RetRegistAccount</t>
   </si>
   <si>
+    <t>msg.GW2C_UpdateGold</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateYuanbao</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateCoupon</t>
+  </si>
+  <si>
     <t>msg.IpHost</t>
   </si>
   <si>
@@ -196,15 +205,6 @@
     <t>msg.GW2C_RemovePackageItem</t>
   </si>
   <si>
-    <t>msg.GW2C_UpdateGold</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateYuanbao</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateCoupon</t>
-  </si>
-  <si>
     <t>msg.GW2C_UpdateFreeStep</t>
   </si>
   <si>
@@ -232,6 +232,18 @@
     <t>msg.C2GW_SellBagItem</t>
   </si>
   <si>
+    <t>msg.GW2C_AckMaids</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckMaidShop</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMergeMaid</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckMergeMaid</t>
+  </si>
+  <si>
     <t>msg.RS2MS_ReqRegist</t>
   </si>
   <si>
@@ -311,6 +323,15 @@
   </si>
   <si>
     <t>msg.ItemBin</t>
+  </si>
+  <si>
+    <t>msg.MaidData</t>
+  </si>
+  <si>
+    <t>msg.MaidShopData</t>
+  </si>
+  <si>
+    <t>msg.MaidBin</t>
   </si>
   <si>
     <t>msg.Serialize</t>
@@ -782,7 +803,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1662,6 +1683,62 @@
       </c>
       <c r="B109" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1700,59 +1777,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>msg.GW2C_UpdateCoupon</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateTrueGold</t>
   </si>
   <si>
     <t>msg.IpHost</t>
@@ -803,7 +806,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1739,6 +1742,14 @@
       </c>
       <c r="B116" s="1" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1777,59 +1788,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>msg.GW2C_AckMaidShop</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqBuyMaid</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckBuyMaid</t>
   </si>
   <si>
     <t>msg.C2GW_ReqMergeMaid</t>
@@ -806,7 +812,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1750,6 +1756,22 @@
       </c>
       <c r="B117" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1788,59 +1810,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Id</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>msg.GW2C_UpdateCoupon</t>
+  </si>
+  <si>
+    <t>msg.C2GW_UploadTrueGold</t>
   </si>
   <si>
     <t>msg.GW2C_UpdateTrueGold</t>
@@ -812,7 +815,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1772,6 +1775,14 @@
       </c>
       <c r="B119" s="1" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1810,59 +1821,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Id</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>msg.GW2C_AckMergeMaid</t>
+  </si>
+  <si>
+    <t>msg.GW2C_OfflineReward</t>
   </si>
   <si>
     <t>msg.RS2MS_ReqRegist</t>
@@ -815,7 +818,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1783,6 +1786,14 @@
       </c>
       <c r="B120" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>117</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1821,59 +1832,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -142,6 +142,9 @@
     <t>msg.GW2C_UpdateTrueGold</t>
   </si>
   <si>
+    <t>msg.GW2C_UpdatePower</t>
+  </si>
+  <si>
     <t>msg.IpHost</t>
   </si>
   <si>
@@ -310,9 +313,6 @@
     <t>msg.SimpleCounter</t>
   </si>
   <si>
-    <t>msg.FreePresentMoney</t>
-  </si>
-  <si>
     <t>msg.UserWechat</t>
   </si>
   <si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>msg.LuckyDrawHistory</t>
+  </si>
+  <si>
+    <t>msg.PowerData</t>
   </si>
   <si>
     <t>msg.UserBase</t>
@@ -818,7 +821,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1794,6 +1797,14 @@
       </c>
       <c r="B121" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>118</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1832,59 +1843,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>msg.AccountGateInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_TurnBrand</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetTurnBrand</t>
   </si>
   <si>
     <t>msg.BattleUser</t>
@@ -821,7 +827,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1805,6 +1811,22 @@
       </c>
       <c r="B122" s="1" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>119</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>120</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1843,59 +1865,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -46,12 +46,18 @@
     <t>msg.AccountGateInfo</t>
   </si>
   <si>
-    <t>msg.C2GW_TurnBrand</t>
+    <t>msg.C2GW_ReqTurnBrand</t>
   </si>
   <si>
     <t>msg.GW2C_RetTurnBrand</t>
   </si>
   <si>
+    <t>msg.C2GW_ReqLinkup</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetLinkup</t>
+  </si>
+  <si>
     <t>msg.BattleUser</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t>msg.GW2C_UpdateTrueGold</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqPower</t>
   </si>
   <si>
     <t>msg.GW2C_UpdatePower</t>
@@ -827,7 +836,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1827,6 +1836,30 @@
       </c>
       <c r="B124" s="1" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>121</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>122</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>123</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1865,59 +1898,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -320,6 +320,30 @@
   </si>
   <si>
     <t>msg.MS2GW_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.PalaceData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckPalaceData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqPalaceTakeBack</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetPalaceTakeBack</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMasterLevelup</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetMasterLevelup</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMaidUnlock</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetMaidUnlock</t>
   </si>
   <si>
     <t>msg.EntityBase</t>
@@ -836,7 +860,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1860,6 +1884,70 @@
       </c>
       <c r="B127" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>124</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>125</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>126</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>127</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>128</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>129</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>130</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>131</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1898,59 +1986,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,24 @@
     <t>msg.PairNumItem</t>
   </si>
   <si>
+    <t>msg.GW2C_AckTravelData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckEventData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqPrepareTravel</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckPrepareTravel</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqCheckEvent</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckCheckEvent</t>
+  </si>
+  <si>
     <t>msg.GW2L_ReqRegist</t>
   </si>
   <si>
@@ -322,73 +340,76 @@
     <t>msg.MS2GW_MsgNotice</t>
   </si>
   <si>
+    <t>msg.GW2C_AckPalaceData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqPalaceTakeBack</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetPalaceTakeBack</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMasterLevelup</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetMasterLevelup</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMaidUnlock</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetMaidUnlock</t>
+  </si>
+  <si>
+    <t>msg.EntityBase</t>
+  </si>
+  <si>
+    <t>msg.SimpleCounter</t>
+  </si>
+  <si>
+    <t>msg.UserWechat</t>
+  </si>
+  <si>
+    <t>msg.UserTask</t>
+  </si>
+  <si>
+    <t>msg.TaskData</t>
+  </si>
+  <si>
+    <t>msg.LuckyDrawItem</t>
+  </si>
+  <si>
+    <t>msg.LuckyDrawHistory</t>
+  </si>
+  <si>
+    <t>msg.PowerData</t>
+  </si>
+  <si>
+    <t>msg.UserBase</t>
+  </si>
+  <si>
+    <t>msg.UserAddress</t>
+  </si>
+  <si>
+    <t>msg.ItemData</t>
+  </si>
+  <si>
+    <t>msg.ItemBin</t>
+  </si>
+  <si>
+    <t>msg.MaidData</t>
+  </si>
+  <si>
+    <t>msg.MaidShopData</t>
+  </si>
+  <si>
+    <t>msg.MaidBin</t>
+  </si>
+  <si>
     <t>msg.PalaceData</t>
   </si>
   <si>
-    <t>msg.GW2C_AckPalaceData</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqPalaceTakeBack</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetPalaceTakeBack</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqMasterLevelup</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetMasterLevelup</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqMaidUnlock</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetMaidUnlock</t>
-  </si>
-  <si>
-    <t>msg.EntityBase</t>
-  </si>
-  <si>
-    <t>msg.SimpleCounter</t>
-  </si>
-  <si>
-    <t>msg.UserWechat</t>
-  </si>
-  <si>
-    <t>msg.UserTask</t>
-  </si>
-  <si>
-    <t>msg.TaskData</t>
-  </si>
-  <si>
-    <t>msg.LuckyDrawItem</t>
-  </si>
-  <si>
-    <t>msg.LuckyDrawHistory</t>
-  </si>
-  <si>
-    <t>msg.PowerData</t>
-  </si>
-  <si>
-    <t>msg.UserBase</t>
-  </si>
-  <si>
-    <t>msg.UserAddress</t>
-  </si>
-  <si>
-    <t>msg.ItemData</t>
-  </si>
-  <si>
-    <t>msg.ItemBin</t>
-  </si>
-  <si>
-    <t>msg.MaidData</t>
-  </si>
-  <si>
-    <t>msg.MaidShopData</t>
-  </si>
-  <si>
-    <t>msg.MaidBin</t>
+    <t>msg.TravelData</t>
   </si>
   <si>
     <t>msg.Serialize</t>
@@ -860,7 +881,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1948,6 +1969,62 @@
       </c>
       <c r="B135" s="1" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>132</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>133</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>134</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>135</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>136</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>137</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>138</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1986,59 +2063,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,240 @@
     <t>msg.PairNumItem</t>
   </si>
   <si>
+    <t>msg.GW2L_ReqRegist</t>
+  </si>
+  <si>
+    <t>msg.L2GW_RetRegist</t>
+  </si>
+  <si>
+    <t>msg.GW2L_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.L2GW_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.L2GW_ReqRegistUser</t>
+  </si>
+  <si>
+    <t>msg.GW2L_RegistUserRet</t>
+  </si>
+  <si>
+    <t>msg.GW2MS_ReqRegist</t>
+  </si>
+  <si>
+    <t>msg.MS2GW_RetRegist</t>
+  </si>
+  <si>
+    <t>msg.GW2MS_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.MS2GW_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.GW2MS_ReqCreateRoom</t>
+  </si>
+  <si>
+    <t>msg.MS2GW_RetCreateRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2GW_ReqRegist</t>
+  </si>
+  <si>
+    <t>msg.GW2RS_RetRegist</t>
+  </si>
+  <si>
+    <t>msg.GW2RS_UserDisconnect</t>
+  </si>
+  <si>
+    <t>msg.RS2GW_RetUserDisconnect</t>
+  </si>
+  <si>
+    <t>msg.GW2RS_MsgTransfer</t>
+  </si>
+  <si>
+    <t>msg.RS2GW_MsgTransfer</t>
+  </si>
+  <si>
+    <t>msg.C2GW_BuyItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AddPackageItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RemovePackageItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateFreeStep</t>
+  </si>
+  <si>
+    <t>msg.DeliveryGoods</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqDeliveryGoods</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqDeliveryDiamond</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetDeliveryDiamond</t>
+  </si>
+  <si>
+    <t>msg.BigRewardItem</t>
+  </si>
+  <si>
+    <t>msg.Sync_BigRewardPickNum</t>
+  </si>
+  <si>
+    <t>msg.C2GW_UseBagItem</t>
+  </si>
+  <si>
+    <t>msg.C2GW_SellBagItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckMaids</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckMaidShop</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqBuyMaid</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckBuyMaid</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMergeMaid</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckMergeMaid</t>
+  </si>
+  <si>
+    <t>msg.GW2C_OfflineReward</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_ReqRegist</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_RetRegist</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.GateSimpleInfo</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_GateInfo</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_CreateRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_RetCreateRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_DeleteRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_UpdateRewardPool</t>
+  </si>
+  <si>
+    <t>msg.GW2C_MsgNotify</t>
+  </si>
+  <si>
+    <t>msg.GW2C_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.GW2MS_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.MS2GW_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckPalaceData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqPalaceTakeBack</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetPalaceTakeBack</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMasterLevelup</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetMasterLevelup</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqMaidUnlock</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetMaidUnlock</t>
+  </si>
+  <si>
+    <t>msg.EntityBase</t>
+  </si>
+  <si>
+    <t>msg.SimpleCounter</t>
+  </si>
+  <si>
+    <t>msg.UserWechat</t>
+  </si>
+  <si>
+    <t>msg.UserTask</t>
+  </si>
+  <si>
+    <t>msg.TaskData</t>
+  </si>
+  <si>
+    <t>msg.LuckyDrawItem</t>
+  </si>
+  <si>
+    <t>msg.LuckyDrawHistory</t>
+  </si>
+  <si>
+    <t>msg.PowerData</t>
+  </si>
+  <si>
+    <t>msg.UserBase</t>
+  </si>
+  <si>
+    <t>msg.UserAddress</t>
+  </si>
+  <si>
+    <t>msg.ItemData</t>
+  </si>
+  <si>
+    <t>msg.ItemBin</t>
+  </si>
+  <si>
+    <t>msg.MaidData</t>
+  </si>
+  <si>
+    <t>msg.MaidShopData</t>
+  </si>
+  <si>
+    <t>msg.MaidBin</t>
+  </si>
+  <si>
+    <t>msg.PalaceData</t>
+  </si>
+  <si>
+    <t>msg.TravelData</t>
+  </si>
+  <si>
+    <t>msg.Serialize</t>
+  </si>
+  <si>
+    <t>msg.MS2Server_BroadCast</t>
+  </si>
+  <si>
     <t>msg.GW2C_AckTravelData</t>
   </si>
   <si>
@@ -184,238 +418,16 @@
     <t>msg.GW2C_AckCheckEvent</t>
   </si>
   <si>
-    <t>msg.GW2L_ReqRegist</t>
-  </si>
-  <si>
-    <t>msg.L2GW_RetRegist</t>
-  </si>
-  <si>
-    <t>msg.GW2L_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.L2GW_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.L2GW_ReqRegistUser</t>
-  </si>
-  <si>
-    <t>msg.GW2L_RegistUserRet</t>
-  </si>
-  <si>
-    <t>msg.GW2MS_ReqRegist</t>
-  </si>
-  <si>
-    <t>msg.MS2GW_RetRegist</t>
-  </si>
-  <si>
-    <t>msg.GW2MS_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.MS2GW_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.GW2MS_ReqCreateRoom</t>
-  </si>
-  <si>
-    <t>msg.MS2GW_RetCreateRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2GW_ReqRegist</t>
-  </si>
-  <si>
-    <t>msg.GW2RS_RetRegist</t>
-  </si>
-  <si>
-    <t>msg.GW2RS_UserDisconnect</t>
-  </si>
-  <si>
-    <t>msg.RS2GW_RetUserDisconnect</t>
-  </si>
-  <si>
-    <t>msg.GW2RS_MsgTransfer</t>
-  </si>
-  <si>
-    <t>msg.RS2GW_MsgTransfer</t>
-  </si>
-  <si>
-    <t>msg.C2GW_BuyItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AddPackageItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RemovePackageItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateFreeStep</t>
-  </si>
-  <si>
-    <t>msg.DeliveryGoods</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqDeliveryGoods</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqDeliveryDiamond</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetDeliveryDiamond</t>
-  </si>
-  <si>
-    <t>msg.BigRewardItem</t>
-  </si>
-  <si>
-    <t>msg.Sync_BigRewardPickNum</t>
-  </si>
-  <si>
-    <t>msg.C2GW_UseBagItem</t>
-  </si>
-  <si>
-    <t>msg.C2GW_SellBagItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckMaids</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckMaidShop</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqBuyMaid</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckBuyMaid</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqMergeMaid</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckMergeMaid</t>
-  </si>
-  <si>
-    <t>msg.GW2C_OfflineReward</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_ReqRegist</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_RetRegist</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.GateSimpleInfo</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_GateInfo</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_CreateRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_RetCreateRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_DeleteRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_UpdateRewardPool</t>
-  </si>
-  <si>
-    <t>msg.GW2C_MsgNotify</t>
-  </si>
-  <si>
-    <t>msg.GW2C_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.GW2MS_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.MS2GW_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckPalaceData</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqPalaceTakeBack</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetPalaceTakeBack</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqMasterLevelup</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetMasterLevelup</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqMaidUnlock</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetMaidUnlock</t>
-  </si>
-  <si>
-    <t>msg.EntityBase</t>
-  </si>
-  <si>
-    <t>msg.SimpleCounter</t>
-  </si>
-  <si>
-    <t>msg.UserWechat</t>
-  </si>
-  <si>
-    <t>msg.UserTask</t>
-  </si>
-  <si>
-    <t>msg.TaskData</t>
-  </si>
-  <si>
-    <t>msg.LuckyDrawItem</t>
-  </si>
-  <si>
-    <t>msg.LuckyDrawHistory</t>
-  </si>
-  <si>
-    <t>msg.PowerData</t>
-  </si>
-  <si>
-    <t>msg.UserBase</t>
-  </si>
-  <si>
-    <t>msg.UserAddress</t>
-  </si>
-  <si>
-    <t>msg.ItemData</t>
-  </si>
-  <si>
-    <t>msg.ItemBin</t>
-  </si>
-  <si>
-    <t>msg.MaidData</t>
-  </si>
-  <si>
-    <t>msg.MaidShopData</t>
-  </si>
-  <si>
-    <t>msg.MaidBin</t>
-  </si>
-  <si>
-    <t>msg.PalaceData</t>
-  </si>
-  <si>
-    <t>msg.TravelData</t>
-  </si>
-  <si>
-    <t>msg.Serialize</t>
-  </si>
-  <si>
-    <t>msg.MS2Server_BroadCast</t>
+    <t>msg.C2GW_ReqEventBarrage</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckEventBarrage</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqSendEventBarrage</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckSendEventBarrage</t>
   </si>
   <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
@@ -881,7 +893,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2025,6 +2037,38 @@
       </c>
       <c r="B142" s="1" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>139</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>140</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>141</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>142</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2063,59 +2107,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>msg.GW2C_AckSendEventBarrage</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqTravelView</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTravelView</t>
   </si>
   <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
@@ -893,7 +899,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2069,6 +2075,22 @@
       </c>
       <c r="B146" s="1" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>143</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>144</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2107,59 +2129,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Id</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>msg.SimpleCounter</t>
+  </si>
+  <si>
+    <t>msg.RoomMemberInfo</t>
   </si>
   <si>
     <t>msg.UserWechat</t>
@@ -899,7 +902,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2091,6 +2094,14 @@
       </c>
       <c r="B148" s="1" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>145</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2129,59 +2140,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>msg.SimpleCounter</t>
-  </si>
-  <si>
-    <t>msg.RoomMemberInfo</t>
   </si>
   <si>
     <t>msg.UserWechat</t>
@@ -902,7 +899,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2094,14 +2091,6 @@
       </c>
       <c r="B148" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>145</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2140,59 +2129,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,15 @@
     <t>msg.GW2C_RetLinkup</t>
   </si>
   <si>
+    <t>msg.GW2C_AckBoxData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqOpenBox</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetOpenBox</t>
+  </si>
+  <si>
     <t>msg.BattleUser</t>
   </si>
   <si>
@@ -392,6 +401,9 @@
   </si>
   <si>
     <t>msg.TravelData</t>
+  </si>
+  <si>
+    <t>msg.BoxData</t>
   </si>
   <si>
     <t>msg.Serialize</t>
@@ -899,7 +911,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2091,6 +2103,38 @@
       </c>
       <c r="B148" s="1" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>145</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>146</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>147</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>148</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2129,59 +2173,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Id</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>msg.GW2C_SendTaskList</t>
+  </si>
+  <si>
+    <t>msg.C2GW_UpdateGuideData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckGuideData</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -911,7 +917,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2135,6 +2141,22 @@
       </c>
       <c r="B152" s="1" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>149</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>150</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2173,59 +2195,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Id</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>msg.GW2C_UpdateTrueGold</t>
+  </si>
+  <si>
+    <t>msg.C2GW_UploadBigGold</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateBigGold</t>
   </si>
   <si>
     <t>msg.C2GW_ReqPower</t>
@@ -917,7 +923,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2157,6 +2163,22 @@
       </c>
       <c r="B154" s="1" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>151</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>152</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2195,59 +2217,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Id</t>
   </si>
@@ -235,6 +235,15 @@
     <t>msg.RS2GW_MsgTransfer</t>
   </si>
   <si>
+    <t>msg.C2GW_UpdateGuideData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckGuideData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_NotifyOpenLevel</t>
+  </si>
+  <si>
     <t>msg.C2GW_BuyItem</t>
   </si>
   <si>
@@ -488,12 +497,6 @@
   </si>
   <si>
     <t>msg.GW2C_SendTaskList</t>
-  </si>
-  <si>
-    <t>msg.C2GW_UpdateGuideData</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AckGuideData</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -923,7 +926,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2179,6 +2182,14 @@
       </c>
       <c r="B156" s="1" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>153</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2217,59 +2228,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Id</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>msg.RS2GW_MsgTransfer</t>
+  </si>
+  <si>
+    <t>msg.GW2C_PushGuideData</t>
   </si>
   <si>
     <t>msg.C2GW_UpdateGuideData</t>
@@ -926,7 +929,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2190,6 +2193,14 @@
       </c>
       <c r="B157" s="1" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>154</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2228,59 +2239,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>msg.GW2C_RetOpenBox</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqTenSecond</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTenSecond</t>
   </si>
   <si>
     <t>msg.BattleUser</t>
@@ -929,7 +935,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B160"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2201,6 +2207,22 @@
       </c>
       <c r="B158" s="1" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>155</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>156</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2239,59 +2261,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>msg.GW2C_AckTenSecond</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqKickAss</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckKickAss</t>
   </si>
   <si>
     <t>msg.BattleUser</t>
@@ -935,7 +941,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2223,6 +2229,22 @@
       </c>
       <c r="B160" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>157</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>158</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2261,59 +2283,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Id</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>msg.BoxData</t>
+  </si>
+  <si>
+    <t>msg.GuideData</t>
   </si>
   <si>
     <t>msg.Serialize</t>
@@ -941,7 +944,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2245,6 +2248,14 @@
       </c>
       <c r="B162" s="1" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>159</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2283,59 +2294,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Id</t>
   </si>
@@ -382,6 +382,12 @@
     <t>msg.GW2C_RetMaidUnlock</t>
   </si>
   <si>
+    <t>msg.C2GW_ReqPartLevelup</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckPartLevelup</t>
+  </si>
+  <si>
     <t>msg.EntityBase</t>
   </si>
   <si>
@@ -404,6 +410,9 @@
   </si>
   <si>
     <t>msg.PowerData</t>
+  </si>
+  <si>
+    <t>msg.MiniGameCoinsData</t>
   </si>
   <si>
     <t>msg.UserBase</t>
@@ -944,7 +953,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2256,6 +2265,30 @@
       </c>
       <c r="B163" s="1" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>160</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>161</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>162</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2294,59 +2327,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Id</t>
   </si>
@@ -187,6 +187,12 @@
     <t>msg.GW2C_UpdatePower</t>
   </si>
   <si>
+    <t>msg.C2GW_ReqMiniGameCoin</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateMiniGameCoin</t>
+  </si>
+  <si>
     <t>msg.IpHost</t>
   </si>
   <si>
@@ -410,9 +416,6 @@
   </si>
   <si>
     <t>msg.PowerData</t>
-  </si>
-  <si>
-    <t>msg.MiniGameCoinsData</t>
   </si>
   <si>
     <t>msg.UserBase</t>
@@ -953,7 +956,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2289,6 +2292,14 @@
       </c>
       <c r="B166" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>163</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2327,59 +2338,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>msg.GW2C_AckKickAss</t>
+  </si>
+  <si>
+    <t>msg.RobotPalaceData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqAttackPalaceData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckAttackPalaceData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqAttackPalace</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckAttackPalace</t>
+  </si>
+  <si>
+    <t>msg.GW2C_PushActiveRecord</t>
   </si>
   <si>
     <t>msg.BattleUser</t>
@@ -956,7 +974,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2300,6 +2318,54 @@
       </c>
       <c r="B167" s="1" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>164</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>165</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>166</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>167</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>168</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>169</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2338,59 +2404,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +97,12 @@
     <t>msg.GW2C_PushActiveRecord</t>
   </si>
   <si>
+    <t>msg.C2GW_ReqLuckily</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckLuckily</t>
+  </si>
+  <si>
     <t>msg.BattleUser</t>
   </si>
   <si>
@@ -470,6 +476,12 @@
   </si>
   <si>
     <t>msg.Serialize</t>
+  </si>
+  <si>
+    <t>msg.RewardData</t>
+  </si>
+  <si>
+    <t>msg.RewardsData</t>
   </si>
   <si>
     <t>msg.MS2Server_BroadCast</t>
@@ -974,7 +986,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2366,6 +2378,38 @@
       </c>
       <c r="B173" s="1" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>170</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>171</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>172</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>173</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2404,59 +2448,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>msg.MS2GW_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RewardNotify</t>
   </si>
   <si>
     <t>msg.GW2C_AckPalaceData</t>
@@ -986,7 +989,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2410,6 +2413,14 @@
       </c>
       <c r="B177" s="1" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>174</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2448,59 +2459,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -97,10 +97,28 @@
     <t>msg.GW2C_PushActiveRecord</t>
   </si>
   <si>
+    <t>msg.C2GW_ReqGuessKingData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckGuessKingData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqGuessKing</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckGuessKing</t>
+  </si>
+  <si>
     <t>msg.C2GW_ReqLuckily</t>
   </si>
   <si>
     <t>msg.GW2C_AckLuckily</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqTryst</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTryst</t>
   </si>
   <si>
     <t>msg.BattleUser</t>
@@ -989,7 +1007,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2421,6 +2439,54 @@
       </c>
       <c r="B178" s="1" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>175</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>176</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>177</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>178</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>179</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>180</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2459,59 +2525,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>msg.C2L_ReqLogin</t>
+  </si>
+  <si>
+    <t>msg.C2L_ReqLoginWechat</t>
   </si>
   <si>
     <t>msg.L2C_RetLogin</t>
@@ -1007,7 +1010,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B184"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2487,6 +2490,14 @@
       </c>
       <c r="B184" s="1" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>181</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2525,59 +2536,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Id</t>
   </si>
@@ -509,6 +509,15 @@
   </si>
   <si>
     <t>msg.MS2Server_BroadCast</t>
+  </si>
+  <si>
+    <t>msg.ShareData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqShareMessage</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckShareMessage</t>
   </si>
   <si>
     <t>msg.GW2C_AckTravelData</t>
@@ -1010,7 +1019,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2498,6 +2507,30 @@
       </c>
       <c r="B185" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>182</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>183</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>184</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2536,59 +2569,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Id</t>
   </si>
@@ -121,6 +121,21 @@
     <t>msg.GW2C_AckTryst</t>
   </si>
   <si>
+    <t>msg.GW2C_PushActiveData</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqSignin</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckSignin</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqDailyPower</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckDailyPower</t>
+  </si>
+  <si>
     <t>msg.BattleUser</t>
   </si>
   <si>
@@ -497,6 +512,9 @@
   </si>
   <si>
     <t>msg.GuideData</t>
+  </si>
+  <si>
+    <t>msg.ActiveData</t>
   </si>
   <si>
     <t>msg.Serialize</t>
@@ -1019,7 +1037,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2531,6 +2549,54 @@
       </c>
       <c r="B188" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>185</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>186</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>187</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>188</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>189</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>190</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2569,59 +2635,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Id</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>msg.ShareData</t>
+  </si>
+  <si>
+    <t>msg.GW2C_PushShareData</t>
   </si>
   <si>
     <t>msg.C2GW_ReqShareMessage</t>
@@ -1037,7 +1040,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2597,6 +2600,14 @@
       </c>
       <c r="B194" s="1" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>191</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2635,59 +2646,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
